--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_108.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_108.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08947368421052632</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'B:min'], ['D', 'A', 'D']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1863636363636363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min/b3'], ['G', 'D', 'G']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.302076, 23.689106), (11.219991, 14.772644)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.006624, 17.758189), (0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:12.510000', '0:00:13.910000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1702898550724637</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:09.940000', '0:00:12.720000'), ('0:00:09.240000', '0:00:12.020000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.960000', '0:00:49.040000'), ('0:00:44.760000', '0:00:48.460000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1172413793103448</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'C/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1596638655462185</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(159.135941, 175.912358)]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.37, 36.95)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:03:54.420000', '0:03:57.900000'), ('0:00:00.780000', '0:00:24.040000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:42.394399', '0:00:50.173083'), ('0:00:11.465419', '0:00:19.151224')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05246283882250073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1152173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['F', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(123.03, 126.19)]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.276092)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:01.380000', '0:00:04.140000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.444363', '0:00:11.013666')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1533613445378151</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'C', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(22.125076, 36.625937)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.774988, 11.14034)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05307692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:24.290000', '0:00:28.790000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.800000', '0:00:13.600000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09046391752577319</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.426857, 3.509464)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.291354, 12.447726)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:05')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1215277777777778</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5844155844155844</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>[['C', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.776, 9.009)]</t>
+          <t>[['F', 'C', 'G', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.028463, 6.708825)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:15.298925', '0:00:28.202000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:41.895260', '0:00:59.802639')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.84, 19.46)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
+          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min', 'A#:min'], ['A#', 'A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.68, 31.24), (269.7, 275.78)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72), (19.96, 23.02)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(282.12, 287.58)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(236.78, 249.14)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07048951048951049</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.75, 39.98)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.46, 30.01)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3555555555555555</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F/2', 'C', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(57.758, 65.204)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(114.52, 115.98)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2410714285714285</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.668956, 11.14034)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_25</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(42.52, 46.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
